--- a/biology/Médecine/Louis_Peisse/Louis_Peisse.xlsx
+++ b/biology/Médecine/Louis_Peisse/Louis_Peisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Louis Hippolyte Peisse, né à Aix-en-Provence le 1er janvier 1803 et mort à Paris le 12 octobre 1880, est un journaliste et traducteur français, observateur notamment de la vie médicale de son temps.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études secondaires à Aix-en-Provence, il est étudiant en médecine à la faculté de Montpellier. Venu à Paris en 1826, il publie l'année suivante un premier ouvrage rassemblant des articles biographiques sur les médecins français, parus d'abord dans La Gazette médicale. Entre 1830 et 1833, il contribue au National, en collaboration avec Armand Carrel, puis à différents journaux tels que Le Temps et la Revue des deux Mondes, où il écrit sur les sciences, la littérature et les beaux-arts. En 1835, il est nommé secrétaire particulier du président du Conseil, puis conservateur à l’École des beaux-arts, où il fonde le « musée des modèles ». Il traduit plusieurs traités philosophiques, notamment ceux de William Hamilton et de John Stuart Mill, et publie un deuxième ouvrage sur la médecine en 1857. Quoique non-médecin, il est élu membre de l'Académie de médecine en 1866. Après une première tentative infructueuse en 1843, il est élu membre de l'Académie des sciences morales et politiques en 1877.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire et philosophie médicales
 Les Médecins français contemporains (1827-28)
@@ -580,7 +596,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dictionnaire encyclopédique des sciences médicales, 2e série, tome XXII, 1868-1889.</t>
         </is>
